--- a/新建文件夹/【西安-校区】-第四组组员进度表.xlsx
+++ b/新建文件夹/【西安-校区】-第四组组员进度表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三个页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最后一个页面，购物车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +78,14 @@
   </si>
   <si>
     <t>答辩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录注册没有完全实现，头部尾部还有一部分 首页完成60%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成未完成部分，接着做下一个页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,6 +166,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,14 +483,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="55.625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
@@ -516,8 +523,12 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.875</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -526,7 +537,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -538,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -550,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -562,7 +573,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
